--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\SIST-UNI\ORACLE\SISTUNI-PLSQL-006\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EGCC\SISTUNI-PLSQL-006\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
   <si>
     <t>NRO</t>
   </si>
@@ -449,7 +449,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,7 +459,7 @@
     <col min="3" max="6" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -479,7 +479,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -489,11 +489,13 @@
       <c r="C2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -507,7 +509,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -521,7 +523,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -531,11 +533,13 @@
       <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -545,11 +549,13 @@
       <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -559,11 +565,13 @@
       <c r="C7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -577,7 +585,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -587,11 +595,13 @@
       <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -601,11 +611,13 @@
       <c r="C10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -615,11 +627,13 @@
       <c r="C11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -629,11 +643,13 @@
       <c r="C12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -643,11 +659,13 @@
       <c r="C13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -657,7 +675,9 @@
       <c r="C14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>

--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="20">
   <si>
     <t>NRO</t>
   </si>
@@ -106,7 +106,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -116,6 +116,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -147,7 +153,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -162,6 +168,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -449,7 +467,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,22 +510,24 @@
       <c r="D2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="C3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -520,7 +540,9 @@
         <v>18</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -536,7 +558,9 @@
       <c r="D5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -552,7 +576,9 @@
       <c r="D6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -568,22 +594,26 @@
       <c r="D7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="C8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -598,7 +628,9 @@
       <c r="D9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -630,7 +662,9 @@
       <c r="D11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -646,7 +680,9 @@
       <c r="D12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -662,7 +698,9 @@
       <c r="D13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -678,7 +716,9 @@
       <c r="D14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F14" s="4"/>
     </row>
   </sheetData>

--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="20">
   <si>
     <t>NRO</t>
   </si>
@@ -467,7 +467,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,7 +513,9 @@
       <c r="E2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
@@ -543,7 +545,9 @@
       <c r="E4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -561,7 +565,9 @@
       <c r="E5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -579,7 +585,9 @@
       <c r="E6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -597,7 +605,9 @@
       <c r="E7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
@@ -631,7 +641,9 @@
       <c r="E9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -647,7 +659,9 @@
         <v>18</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -665,7 +679,9 @@
       <c r="E11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -701,7 +717,9 @@
       <c r="E13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
